--- a/rsc/external/teaching-vet/data-science/ex-D/files/example_data.xlsx
+++ b/rsc/external/teaching-vet/data-science/ex-D/files/example_data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewdenwood/Documents/GitHub/teaching-vet-datascience/files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewdenwood/Documents/GitHub/teaching-vet-datascience/exercise-D/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9A40226-4504-F445-9616-B289297FC7DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{451A9E1C-3620-F14A-B757-528548C31AE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1020" yWindow="620" windowWidth="30980" windowHeight="17380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="60">
   <si>
     <t>Dataset</t>
   </si>
@@ -234,12 +234,18 @@
   <si>
     <t>Jean-Luc (DogID B) has a missing Breed because the owner didn't report that information</t>
   </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>Content</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -269,6 +275,14 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri (Body)"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -291,7 +305,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -299,6 +313,7 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -604,7 +619,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
@@ -615,64 +630,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>50</v>
+      <c r="A1" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>54</v>
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>55</v>
+        <v>12</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>51</v>
+        <v>1</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>9</v>
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>13</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>52</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" xr:uid="{B3F91157-AA3A-E547-B1D4-F9942E1B2358}"/>
+    <hyperlink ref="B7" r:id="rId1" xr:uid="{B3F91157-AA3A-E547-B1D4-F9942E1B2358}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
